--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>NO</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>${table:pk.BOLARD_PULL}</t>
+  </si>
+  <si>
+    <t>KEPEMILIKAN KAPAL</t>
+  </si>
+  <si>
+    <t>${table:pk.KEPEMILIKAN}</t>
   </si>
 </sst>
 </file>
@@ -555,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,32 +573,33 @@
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -612,67 +619,70 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -692,68 +702,71 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="KAPAL" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>HP</t>
   </si>
   <si>
-    <t>TAHUN</t>
-  </si>
-  <si>
     <t>JENIS ASSET</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>${table:pk.KEPEMILIKAN}</t>
+  </si>
+  <si>
+    <t>TAHUN PEMEBELIAN</t>
   </si>
 </sst>
 </file>
@@ -564,42 +564,42 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6328125" customWidth="1"/>
+    <col min="24" max="24" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,55 +613,55 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>4</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -690,61 +690,61 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>10</v>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -135,12 +135,6 @@
     <t>${table:pk.NILAI}</t>
   </si>
   <si>
-    <t>${table:pk.LOA}</t>
-  </si>
-  <si>
-    <t>${table:pk.BREADTH}</t>
-  </si>
-  <si>
     <t>${table:pk.DEPTH}</t>
   </si>
   <si>
@@ -162,18 +156,9 @@
     <t>${table:pk.PORT_OF_REGISTRATION}</t>
   </si>
   <si>
-    <t>${table:pk.GROSS_TONNAGE}</t>
-  </si>
-  <si>
-    <t>${table:pk.KECEPATAN}</t>
-  </si>
-  <si>
     <t>${table:pk.KONSTRUKSI}</t>
   </si>
   <si>
-    <t>${table:pk.BOLARD_PULL}</t>
-  </si>
-  <si>
     <t>KEPEMILIKAN KAPAL</t>
   </si>
   <si>
@@ -181,6 +166,21 @@
   </si>
   <si>
     <t>TAHUN PEMEBELIAN</t>
+  </si>
+  <si>
+    <t>${table:pk.LOA} m</t>
+  </si>
+  <si>
+    <t>${table:pk.BREADTH} m</t>
+  </si>
+  <si>
+    <t>${table:pk.GROSS_TONNAGE} ton</t>
+  </si>
+  <si>
+    <t>${table:pk.BOLARD_PULL} ton</t>
+  </si>
+  <si>
+    <t>${table:pk.KECEPATAN} knot</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,9 +245,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -260,16 +258,25 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +286,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +612,7 @@
     <col min="30" max="30" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -678,7 +691,7 @@
       <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -702,49 +715,49 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>10</v>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="KAPAL" sheetId="1" r:id="rId1"/>
@@ -168,19 +168,19 @@
     <t>TAHUN PEMEBELIAN</t>
   </si>
   <si>
-    <t>${table:pk.LOA} m</t>
-  </si>
-  <si>
-    <t>${table:pk.BREADTH} m</t>
-  </si>
-  <si>
-    <t>${table:pk.GROSS_TONNAGE} ton</t>
-  </si>
-  <si>
-    <t>${table:pk.BOLARD_PULL} ton</t>
-  </si>
-  <si>
-    <t>${table:pk.KECEPATAN} knot</t>
+    <t>${table:pk.GROSS_TONNAGE}</t>
+  </si>
+  <si>
+    <t>${table:pk.KECEPATAN}</t>
+  </si>
+  <si>
+    <t>${table:pk.BOLARD_PULL}</t>
+  </si>
+  <si>
+    <t>${table:pk.LOA}</t>
+  </si>
+  <si>
+    <t>${table:pk.BREADTH}</t>
   </si>
 </sst>
 </file>
@@ -576,43 +576,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AA2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6328125" customWidth="1"/>
-    <col min="24" max="24" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -721,10 +721,10 @@
         <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -751,13 +751,13 @@
         <v>44</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>10</v>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DAE82F-59A0-4078-A053-1BCD2A1F2AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAPAL" sheetId="1" r:id="rId1"/>
@@ -81,18 +82,6 @@
     <t>NILAI PEROLEHAN</t>
   </si>
   <si>
-    <t>LOA</t>
-  </si>
-  <si>
-    <t>BREADTH</t>
-  </si>
-  <si>
-    <t>DEPTH</t>
-  </si>
-  <si>
-    <t>DRAFT MAX</t>
-  </si>
-  <si>
     <t>TAHUN PEMBUATAN</t>
   </si>
   <si>
@@ -111,15 +100,6 @@
     <t>PORT OF REGISTRATION</t>
   </si>
   <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>KECEPATAN</t>
-  </si>
-  <si>
-    <t>BOLLARD PULL</t>
-  </si>
-  <si>
     <t>${table:pk.NAMA_ASSET}</t>
   </si>
   <si>
@@ -181,12 +161,33 @@
   </si>
   <si>
     <t>${table:pk.BREADTH}</t>
+  </si>
+  <si>
+    <t>LOA (M)</t>
+  </si>
+  <si>
+    <t>BREADTH (M)</t>
+  </si>
+  <si>
+    <t>DEPTH (M)</t>
+  </si>
+  <si>
+    <t>DRAFT MAX (M)</t>
+  </si>
+  <si>
+    <t>GT (TON)</t>
+  </si>
+  <si>
+    <t>KECEPATAN (KNOT)</t>
+  </si>
+  <si>
+    <t>BOLLARD PULL (TON)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,46 +574,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.7109375" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,55 +626,55 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>4</v>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -703,61 +703,61 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>10</v>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DAE82F-59A0-4078-A053-1BCD2A1F2AD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="KAPAL" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>NO</t>
   </si>
@@ -182,13 +181,16 @@
   </si>
   <si>
     <t>BOLLARD PULL (TON)</t>
+  </si>
+  <si>
+    <t>ASSET KAPAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +206,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -273,11 +283,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -294,6 +313,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,214 +602,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.7109375" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/report/Custom Report - Asset Kapal.xlsx
+++ b/report/Custom Report - Asset Kapal.xlsx
@@ -72,9 +72,6 @@
     <t>NAMA ASSET</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>JENIS ASSET</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>${table:pk.KEPEMILIKAN}</t>
   </si>
   <si>
-    <t>TAHUN PEMEBELIAN</t>
-  </si>
-  <si>
     <t>${table:pk.GROSS_TONNAGE}</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>ASSET KAPAL</t>
+  </si>
+  <si>
+    <t>HORSE POWER (DAYA)</t>
+  </si>
+  <si>
+    <t>TAHUN PEROLEHAN</t>
   </si>
 </sst>
 </file>
@@ -315,13 +315,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +606,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
@@ -641,35 +641,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
@@ -711,58 +711,58 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>4</v>
@@ -791,61 +791,61 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>10</v>
